--- a/insider_updates.xlsx
+++ b/insider_updates.xlsx
@@ -408,12 +408,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Total Value</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -486,22 +481,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NYSE:NEE</t>
+          <t>NAS:CLFD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NAS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chairman of the Board</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -510,30 +505,32 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4000</v>
+        <v>3100</v>
       </c>
       <c r="G2" t="n">
-        <v>7951</v>
+        <v>1431543</v>
       </c>
       <c r="H2" t="n">
-        <v>74.89</v>
-      </c>
-      <c r="I2" t="n">
-        <v>299.6</v>
+        <v>64</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>615,040.00</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>STALL JOHN A</t>
+          <t>ROTH RONALD G</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1,198,400.00</t>
+          <t>https://www.google.com/search?q=CLFD+stock</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=NEE+stock</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -550,52 +547,106 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7951</v>
+      </c>
+      <c r="H3" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1,198,400.00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>STALL JOHN A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=NEE+stock</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NYSE:NEE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>EVP, Finance and CFO</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>2023-02-06</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>2672</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>35527</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>74.87</v>
       </c>
-      <c r="I3" t="n">
-        <v>200.1</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>534,667.20</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>Crews Terrell Kirk II</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>534,667.20</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>https://www.google.com/search?q=NEE+stock</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/insider_updates.xlsx
+++ b/insider_updates.xlsx
@@ -408,12 +408,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,31 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Rank Profitability</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Rank Financial Strength</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Rank GF Value</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Increased By (%)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -530,123 +555,30 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NYSE:NEE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>NYSE</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023-02-06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7951</v>
-      </c>
-      <c r="H3" t="n">
-        <v>74.89</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1,198,400.00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>STALL JOHN A</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?q=NEE+stock</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NYSE:NEE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>NYSE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>EVP, Finance and CFO</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023-02-06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2672</v>
-      </c>
-      <c r="G4" t="n">
-        <v>35527</v>
-      </c>
-      <c r="H4" t="n">
-        <v>74.87</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>534,667.20</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Crews Terrell Kirk II</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?q=NEE+stock</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>64.79000000000001</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/insider_updates.xlsx
+++ b/insider_updates.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,78 +506,215 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NAS:CLFD</t>
+          <t>NYSE:NEE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7951</v>
+      </c>
+      <c r="H2" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1,198,400.00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>STALL JOHN A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=NEE+stock</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>73.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NYSE:NEE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EVP, Finance and CFO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2672</v>
+      </c>
+      <c r="G3" t="n">
+        <v>35527</v>
+      </c>
+      <c r="H3" t="n">
+        <v>74.87</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>534,667.20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Crews Terrell Kirk II</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=NEE+stock</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>73.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NAS:FFIN</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>NAS</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Chairman of the Board</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2023-02-07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EVP/CFO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>3100</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1431543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>64</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>615,040.00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>ROTH RONALD G</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?q=CLFD+stock</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="F4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36.44</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>911,000.00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Hickox Michelle S</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=FFIN+stock</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>64.79000000000001</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.23</v>
+      <c r="O4" t="n">
+        <v>37.52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
